--- a/extras/josaa.xlsx
+++ b/extras/josaa.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Documents\GitHub\student-counselling-system\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E318A03-32BB-4CD6-9C5C-B8CDD8B68D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E7B83C-A0E1-4649-82B3-1369036DAB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Josaa" sheetId="1" r:id="rId1"/>
     <sheet name="Institutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Branches" sheetId="3" r:id="rId3"/>
+    <sheet name="States" sheetId="4" r:id="rId3"/>
+    <sheet name="Branches" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Branches!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Branches!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Institutes!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Josaa!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">States!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="271">
   <si>
     <t>Assam University, Silchar</t>
   </si>
@@ -796,9 +799,6 @@
     <t>Tamil Nadu</t>
   </si>
   <si>
-    <t>Gujrat</t>
-  </si>
-  <si>
     <t>Himachal Pradesh</t>
   </si>
   <si>
@@ -824,6 +824,24 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli and Daman and Diu</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>state_id</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -52667,8 +52685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52689,7 +52707,7 @@
         <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -52702,8 +52720,8 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
+      <c r="D2" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -52716,8 +52734,8 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>246</v>
+      <c r="D3" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -52730,8 +52748,8 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>247</v>
+      <c r="D4" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -52744,8 +52762,8 @@
       <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -52758,8 +52776,8 @@
       <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>248</v>
+      <c r="D6" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -52772,8 +52790,8 @@
       <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>249</v>
+      <c r="D7" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -52786,8 +52804,8 @@
       <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>250</v>
+      <c r="D8" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -52800,8 +52818,8 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>144</v>
+      <c r="D9" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -52814,8 +52832,8 @@
       <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>251</v>
+      <c r="D10" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -52828,8 +52846,8 @@
       <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>250</v>
+      <c r="D11" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -52842,8 +52860,8 @@
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
+      <c r="D12" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -52856,8 +52874,8 @@
       <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>252</v>
+      <c r="D13" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -52870,8 +52888,8 @@
       <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>252</v>
+      <c r="D14" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -52884,8 +52902,8 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>247</v>
+      <c r="D15" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -52898,8 +52916,8 @@
       <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>248</v>
+      <c r="D16" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -52912,8 +52930,8 @@
       <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>248</v>
+      <c r="D17" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -52926,8 +52944,8 @@
       <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>253</v>
+      <c r="D18" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -52940,8 +52958,8 @@
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>246</v>
+      <c r="D19" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -52954,8 +52972,8 @@
       <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>71</v>
+      <c r="D20" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -52968,8 +52986,8 @@
       <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>60</v>
+      <c r="D21" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -52982,8 +53000,8 @@
       <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>254</v>
+      <c r="D22" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -52996,8 +53014,8 @@
       <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>255</v>
+      <c r="D23" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -53010,8 +53028,8 @@
       <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>256</v>
+      <c r="D24" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -53024,8 +53042,8 @@
       <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>257</v>
+      <c r="D25" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -53038,8 +53056,8 @@
       <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>132</v>
+      <c r="D26" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -53052,8 +53070,8 @@
       <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>250</v>
+      <c r="D27" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -53066,8 +53084,8 @@
       <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>88</v>
+      <c r="D28" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -53080,8 +53098,8 @@
       <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>258</v>
+      <c r="D29" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -53094,8 +53112,8 @@
       <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>256</v>
+      <c r="D30" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -53108,8 +53126,8 @@
       <c r="C31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>259</v>
+      <c r="D31" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -53122,8 +53140,8 @@
       <c r="C32" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>254</v>
+      <c r="D32" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -53136,8 +53154,8 @@
       <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>255</v>
+      <c r="D33" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -53150,8 +53168,8 @@
       <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>132</v>
+      <c r="D34" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -53159,13 +53177,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>256</v>
+      <c r="D35" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -53178,8 +53196,8 @@
       <c r="C36" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>260</v>
+      <c r="D36" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -53192,8 +53210,8 @@
       <c r="C37" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>261</v>
+      <c r="D37" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -53206,8 +53224,8 @@
       <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>260</v>
+      <c r="D38" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -53220,8 +53238,8 @@
       <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>254</v>
+      <c r="D39" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -53234,8 +53252,8 @@
       <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>118</v>
+      <c r="D40" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -53248,8 +53266,8 @@
       <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>248</v>
+      <c r="D41" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -53262,8 +53280,8 @@
       <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>246</v>
+      <c r="D42" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -53276,8 +53294,8 @@
       <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>142</v>
+      <c r="D43" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -53290,8 +53308,8 @@
       <c r="C44" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>254</v>
+      <c r="D44" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -53304,8 +53322,8 @@
       <c r="C45" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>252</v>
+      <c r="D45" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -53318,8 +53336,8 @@
       <c r="C46" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>88</v>
+      <c r="D46" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -53332,8 +53350,8 @@
       <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>247</v>
+      <c r="D47" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -53346,8 +53364,8 @@
       <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>259</v>
+      <c r="D48" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -53360,8 +53378,8 @@
       <c r="C49" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>127</v>
+      <c r="D49" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -53374,8 +53392,8 @@
       <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>258</v>
+      <c r="D50" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -53388,8 +53406,8 @@
       <c r="C51" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>118</v>
+      <c r="D51" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -53402,8 +53420,8 @@
       <c r="C52" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>250</v>
+      <c r="D52" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -53416,8 +53434,8 @@
       <c r="C53" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>130</v>
+      <c r="D53" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -53430,8 +53448,8 @@
       <c r="C54" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>257</v>
+      <c r="D54" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -53444,8 +53462,8 @@
       <c r="C55" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>132</v>
+      <c r="D55" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -53458,8 +53476,8 @@
       <c r="C56" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>133</v>
+      <c r="D56" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -53472,8 +53490,8 @@
       <c r="C57" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>134</v>
+      <c r="D57" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -53486,8 +53504,8 @@
       <c r="C58" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>253</v>
+      <c r="D58" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -53500,8 +53518,8 @@
       <c r="C59" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>137</v>
+      <c r="D59" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -53514,8 +53532,8 @@
       <c r="C60" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>260</v>
+      <c r="D60" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -53528,8 +53546,8 @@
       <c r="C61" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>139</v>
+      <c r="D61" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -53542,8 +53560,8 @@
       <c r="C62" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>71</v>
+      <c r="D62" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -53556,8 +53574,8 @@
       <c r="C63" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>247</v>
+      <c r="D63" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -53570,8 +53588,8 @@
       <c r="C64" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
+      <c r="D64" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -53584,8 +53602,8 @@
       <c r="C65" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>64</v>
+      <c r="D65" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -53598,8 +53616,8 @@
       <c r="C66" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>142</v>
+      <c r="D66" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -53612,8 +53630,8 @@
       <c r="C67" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>261</v>
+      <c r="D67" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -53626,8 +53644,8 @@
       <c r="C68" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>60</v>
+      <c r="D68" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -53640,8 +53658,8 @@
       <c r="C69" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>251</v>
+      <c r="D69" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -53654,8 +53672,8 @@
       <c r="C70" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>255</v>
+      <c r="D70" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -53668,8 +53686,8 @@
       <c r="C71" t="s">
         <v>144</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>144</v>
+      <c r="D71" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -53682,8 +53700,8 @@
       <c r="C72" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>262</v>
+      <c r="D72" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -53696,8 +53714,8 @@
       <c r="C73" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>137</v>
+      <c r="D73" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -53710,8 +53728,8 @@
       <c r="C74" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>246</v>
+      <c r="D74" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -53724,8 +53742,8 @@
       <c r="C75" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>249</v>
+      <c r="D75" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -53736,24 +53754,24 @@
         <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
+      </c>
+      <c r="D76" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>256</v>
+      <c r="D77" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -53766,8 +53784,8 @@
       <c r="C78" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>60</v>
+      <c r="D78" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -53780,8 +53798,8 @@
       <c r="C79" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>246</v>
+      <c r="D79" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -53794,8 +53812,8 @@
       <c r="C80" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>118</v>
+      <c r="D80" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -53808,8 +53826,8 @@
       <c r="C81" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>71</v>
+      <c r="D81" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -53822,8 +53840,8 @@
       <c r="C82" t="s">
         <v>76</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>251</v>
+      <c r="D82" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -53836,8 +53854,8 @@
       <c r="C83" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>262</v>
+      <c r="D83" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -53850,8 +53868,8 @@
       <c r="C84" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>252</v>
+      <c r="D84" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -53860,11 +53878,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A54845-9C8C-4A3B-AE2A-401762DCBD5E}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
